--- a/Examples/Options.xlsx
+++ b/Examples/Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16296BE0-2640-4250-8C81-23721BDC720E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB4799-FD48-43A6-AB78-EFADBD4CEB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{932791AE-04EA-4D8E-9CAD-8879E2D91A8A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Symbol</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Underlying</t>
+  </si>
+  <si>
+    <t>SPX</t>
   </si>
 </sst>
 </file>
@@ -122,13 +125,13 @@
     <numFmt numFmtId="165" formatCode=";;;&quot;Name&quot;"/>
     <numFmt numFmtId="166" formatCode=";;;&quot;Price&quot;"/>
     <numFmt numFmtId="167" formatCode=";;;&quot;Change&quot;"/>
-    <numFmt numFmtId="170" formatCode=";;;&quot;Volatility&quot;"/>
-    <numFmt numFmtId="171" formatCode=";;;&quot;Delta&quot;"/>
-    <numFmt numFmtId="172" formatCode=";;;&quot;Gamma&quot;"/>
-    <numFmt numFmtId="173" formatCode=";;;&quot;Theta&quot;"/>
-    <numFmt numFmtId="174" formatCode=";;;&quot;Vega&quot;"/>
-    <numFmt numFmtId="175" formatCode=";;;&quot;Rho&quot;"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+    <numFmt numFmtId="168" formatCode=";;;&quot;Volatility&quot;"/>
+    <numFmt numFmtId="169" formatCode=";;;&quot;Delta&quot;"/>
+    <numFmt numFmtId="170" formatCode=";;;&quot;Gamma&quot;"/>
+    <numFmt numFmtId="171" formatCode=";;;&quot;Theta&quot;"/>
+    <numFmt numFmtId="172" formatCode=";;;&quot;Vega&quot;"/>
+    <numFmt numFmtId="173" formatCode=";;;&quot;Rho&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00;[Red]\-#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,13 +183,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -507,19 +510,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531EB9A5-014D-4F8A-ACD0-21DA5EB9E560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.59765625" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.06640625" customWidth="1"/>
     <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -576,126 +578,126 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2">_xll.xlquoteOptions($F2,A$1)</f>
-        <v>AAPL Dec 11 2020 123 Call (Weekly)</v>
+        <f t="array" ref="A2">_xll.xlquoteOption($F2,A$1)</f>
+        <v>AAPL Mar 18 2022 150 Call</v>
       </c>
       <c r="B2" s="1" cm="1">
-        <f t="array" ref="B2">_xll.xlquoteOptions($F2,B$1)</f>
-        <v>1.5</v>
+        <f t="array" ref="B2">_xll.xlquoteOption($F2,B$1)</f>
+        <v>22.4</v>
       </c>
       <c r="C2" s="10" cm="1">
-        <f t="array" ref="C2">_xll.xlquoteOptions($F2,C$1)</f>
-        <v>-0.6</v>
+        <f t="array" ref="C2">_xll.xlquoteOption($F2,C$1)</f>
+        <v>-2.4643999999999999</v>
       </c>
       <c r="D2" s="11" cm="1">
-        <f t="array" ref="D2">_xll.xlquoteOptions($F2,D$1)/100</f>
-        <v>-0.39735100000000001</v>
+        <f t="array" ref="D2">_xll.xlquoteOption($F2,D$1)/100</f>
+        <v>-9.9114000000000008E-2</v>
       </c>
       <c r="F2" t="str">
-        <f>G2&amp;"_"&amp;MONTH(I2)&amp;DAY(I2)&amp;RIGHT(YEAR(I2),2)&amp;LEFT(J2)&amp;K2</f>
-        <v>AAPL_121120C123</v>
+        <f>G2&amp;"_"&amp;TEXT(I2,"mmddyy")&amp;LEFT(J2)&amp;K2</f>
+        <v>AAPL_031822C150</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2">_xll.xlquoteOptions($F2,H$1)</f>
-        <v>122.25</v>
+        <f t="array" ref="H2">_xll.xlquoteOption($F2,H$1)</f>
+        <v>169.8</v>
       </c>
       <c r="I2" s="12">
-        <v>44176</v>
+        <v>44638</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="L2" s="1" cm="1">
-        <f t="array" ref="L2">_xll.xlquoteOptions($F2,L$1)</f>
-        <v>26.276</v>
+        <f t="array" ref="L2">_xll.xlquoteOption($F2,L$1)</f>
+        <v>34.631</v>
       </c>
       <c r="M2" s="1" cm="1">
-        <f t="array" ref="M2">_xll.xlquoteOptions($F2,M$1)</f>
-        <v>0.43659999999999999</v>
+        <f t="array" ref="M2">_xll.xlquoteOption($F2,M$1)</f>
+        <v>0.8296</v>
       </c>
       <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">_xll.xlquoteOptions($F2,N$1)</f>
-        <v>8.4699999999999998E-2</v>
+        <f t="array" ref="N2">_xll.xlquoteOption($F2,N$1)</f>
+        <v>1.06E-2</v>
       </c>
       <c r="O2" s="1" cm="1">
-        <f t="array" ref="O2">_xll.xlquoteOptions($F2,O$1)</f>
-        <v>-0.1202</v>
+        <f t="array" ref="O2">_xll.xlquoteOption($F2,O$1)</f>
+        <v>-4.87E-2</v>
       </c>
       <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">_xll.xlquoteOptions($F2,P$1)</f>
-        <v>6.9800000000000001E-2</v>
+        <f t="array" ref="P2">_xll.xlquoteOption($F2,P$1)</f>
+        <v>0.1734</v>
       </c>
       <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">_xll.xlquoteOptions($F2,Q$1)</f>
-        <v>1.09E-2</v>
+        <f t="array" ref="Q2">_xll.xlquoteOption($F2,Q$1)</f>
+        <v>0.19420000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3">_xll.xlquoteOptions($F3,A$1)</f>
-        <v>AAPL Dec 18 2020 100 Call</v>
+        <f t="array" ref="A3">_xll.xlquoteOption($F3,A$1)</f>
+        <v>SPX Mar 18 2022 4600 Call (AM)</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3">_xll.xlquoteOptions($F3,B$1)</f>
-        <v>22.35</v>
+        <f t="array" ref="B3">_xll.xlquoteOption($F3,B$1)</f>
+        <v>123.06</v>
       </c>
       <c r="C3" s="10" cm="1">
-        <f t="array" ref="C3">_xll.xlquoteOptions($F3,C$1)</f>
-        <v>-0.72729999999999995</v>
+        <f t="array" ref="C3">_xll.xlquoteOption($F3,C$1)</f>
+        <v>-42.213999999999999</v>
       </c>
       <c r="D3" s="11" cm="1">
-        <f t="array" ref="D3">_xll.xlquoteOptions($F3,D$1)/100</f>
-        <v>-3.2590000000000001E-2</v>
+        <f t="array" ref="D3">_xll.xlquoteOption($F3,D$1)/100</f>
+        <v>-0.25541799999999998</v>
       </c>
       <c r="F3" t="str">
-        <f>G3&amp;"_"&amp;MONTH(I3)&amp;DAY(I3)&amp;RIGHT(YEAR(I3),2)&amp;LEFT(J3)&amp;K3</f>
-        <v>AAPL_121820C100</v>
+        <f>G3&amp;"_"&amp;TEXT(I3,"mmddyy")&amp;LEFT(J3)&amp;K3</f>
+        <v>SPX_031822C4600</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" cm="1">
-        <f t="array" ref="H3">_xll.xlquoteOptions($F3,H$1)</f>
-        <v>122.25</v>
+        <f t="array" ref="H3">_xll.xlquoteOption($F3,H$1)</f>
+        <v>4577.1099999999997</v>
       </c>
       <c r="I3" s="12">
-        <v>44183</v>
+        <v>44638</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>4600</v>
       </c>
       <c r="L3" s="1" cm="1">
-        <f t="array" ref="L3">_xll.xlquoteOptions($F3,L$1)</f>
-        <v>48.693399999999997</v>
+        <f t="array" ref="L3">_xll.xlquoteOption($F3,L$1)</f>
+        <v>18.7621</v>
       </c>
       <c r="M3" s="1" cm="1">
-        <f t="array" ref="M3">_xll.xlquoteOptions($F3,M$1)</f>
-        <v>0.98229999999999995</v>
+        <f t="array" ref="M3">_xll.xlquoteOption($F3,M$1)</f>
+        <v>0.48599999999999999</v>
       </c>
       <c r="N3" s="1" cm="1">
-        <f t="array" ref="N3">_xll.xlquoteOptions($F3,N$1)</f>
-        <v>3.7000000000000002E-3</v>
+        <f t="array" ref="N3">_xll.xlquoteOption($F3,N$1)</f>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="O3" s="1" cm="1">
-        <f t="array" ref="O3">_xll.xlquoteOptions($F3,O$1)</f>
-        <v>-1.9900000000000001E-2</v>
+        <f t="array" ref="O3">_xll.xlquoteOption($F3,O$1)</f>
+        <v>-1.1435999999999999</v>
       </c>
       <c r="P3" s="1" cm="1">
-        <f t="array" ref="P3">_xll.xlquoteOptions($F3,P$1)</f>
-        <v>1.0800000000000001E-2</v>
+        <f t="array" ref="P3">_xll.xlquoteOption($F3,P$1)</f>
+        <v>7.3544999999999998</v>
       </c>
       <c r="Q3" s="1" cm="1">
-        <f t="array" ref="Q3">_xll.xlquoteOptions($F3,Q$1)</f>
-        <v>3.9300000000000002E-2</v>
+        <f t="array" ref="Q3">_xll.xlquoteOption($F3,Q$1)</f>
+        <v>3.4119999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Options.xlsx
+++ b/Examples/Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB4799-FD48-43A6-AB78-EFADBD4CEB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7840D32-9424-4877-9304-82D51B273AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,44 +58,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Symbol</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>lastPrice</t>
-  </si>
-  <si>
-    <t>netChange</t>
-  </si>
-  <si>
     <t>netPercentChangeInDouble</t>
   </si>
   <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>gamma</t>
-  </si>
-  <si>
-    <t>theta</t>
-  </si>
-  <si>
-    <t>vega</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>volatility</t>
-  </si>
-  <si>
-    <t>underlyingPrice</t>
-  </si>
-  <si>
     <t>Expiration</t>
   </si>
   <si>
@@ -113,6 +85,33 @@
   </si>
   <si>
     <t>SPX</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Change</t>
   </si>
 </sst>
 </file>
@@ -528,176 +527,176 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xll.xlquoteOption($F2,A$1)</f>
-        <v>AAPL Mar 18 2022 150 Call</v>
+        <v>AAPL Dec 16 2022 150 Call</v>
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_xll.xlquoteOption($F2,B$1)</f>
-        <v>22.4</v>
+        <v>6.01</v>
       </c>
       <c r="C2" s="10" cm="1">
-        <f t="array" ref="C2">_xll.xlquoteOption($F2,C$1)</f>
-        <v>-2.4643999999999999</v>
+        <f t="array" ref="C2">_xll.xlquoteOption($F2,"Change")</f>
+        <v>0</v>
       </c>
       <c r="D2" s="11" cm="1">
-        <f t="array" ref="D2">_xll.xlquoteOption($F2,D$1)/100</f>
-        <v>-9.9114000000000008E-2</v>
+        <f t="array" ref="D2">_xll.xlquoteOption($F2,"ChangePercent")/100</f>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <f>G2&amp;"_"&amp;TEXT(I2,"mmddyy")&amp;LEFT(J2)&amp;K2</f>
-        <v>AAPL_031822C150</v>
+        <v>AAPL_121622C150</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" cm="1">
         <f t="array" ref="H2">_xll.xlquoteOption($F2,H$1)</f>
-        <v>169.8</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="I2" s="12">
-        <v>44638</v>
+        <v>44911</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <v>150</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">_xll.xlquoteOption($F2,L$1)</f>
-        <v>34.631</v>
+        <v>31.572099999999999</v>
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2">_xll.xlquoteOption($F2,M$1)</f>
-        <v>0.8296</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="N2" s="1" cm="1">
         <f t="array" ref="N2">_xll.xlquoteOption($F2,N$1)</f>
-        <v>1.06E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="O2" s="1" cm="1">
         <f t="array" ref="O2">_xll.xlquoteOption($F2,O$1)</f>
-        <v>-4.87E-2</v>
+        <v>-9.06E-2</v>
       </c>
       <c r="P2" s="1" cm="1">
         <f t="array" ref="P2">_xll.xlquoteOption($F2,P$1)</f>
-        <v>0.1734</v>
+        <v>0.18690000000000001</v>
       </c>
       <c r="Q2" s="1" cm="1">
         <f t="array" ref="Q2">_xll.xlquoteOption($F2,Q$1)</f>
-        <v>0.19420000000000001</v>
+        <v>7.1099999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3">_xll.xlquoteOption($F3,A$1)</f>
-        <v>SPX Mar 18 2022 4600 Call (AM)</v>
+        <v>SPX Dec 16 2022 4600 Call (AM)</v>
       </c>
       <c r="B3" s="1" cm="1">
         <f t="array" ref="B3">_xll.xlquoteOption($F3,B$1)</f>
-        <v>123.06</v>
+        <v>1.25</v>
       </c>
       <c r="C3" s="10" cm="1">
-        <f t="array" ref="C3">_xll.xlquoteOption($F3,C$1)</f>
-        <v>-42.213999999999999</v>
+        <f t="array" ref="C3">_xll.xlquoteOption($F3,"Change")</f>
+        <v>0</v>
       </c>
       <c r="D3" s="11" cm="1">
-        <f t="array" ref="D3">_xll.xlquoteOption($F3,D$1)/100</f>
-        <v>-0.25541799999999998</v>
+        <f t="array" ref="D3">_xll.xlquoteOption($F3,"ChangePercent")/100</f>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <f>G3&amp;"_"&amp;TEXT(I3,"mmddyy")&amp;LEFT(J3)&amp;K3</f>
-        <v>SPX_031822C4600</v>
+        <v>SPX_121622C4600</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" cm="1">
         <f t="array" ref="H3">_xll.xlquoteOption($F3,H$1)</f>
-        <v>4577.1099999999997</v>
+        <v>3992.93</v>
       </c>
       <c r="I3" s="12">
-        <v>44638</v>
+        <v>44911</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K3">
         <v>4600</v>
       </c>
       <c r="L3" s="1" cm="1">
         <f t="array" ref="L3">_xll.xlquoteOption($F3,L$1)</f>
-        <v>18.7621</v>
+        <v>20.205500000000001</v>
       </c>
       <c r="M3" s="1" cm="1">
         <f t="array" ref="M3">_xll.xlquoteOption($F3,M$1)</f>
-        <v>0.48599999999999999</v>
+        <v>1.41E-2</v>
       </c>
       <c r="N3" s="1" cm="1">
         <f t="array" ref="N3">_xll.xlquoteOption($F3,N$1)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="O3" s="1" cm="1">
         <f t="array" ref="O3">_xll.xlquoteOption($F3,O$1)</f>
-        <v>-1.1435999999999999</v>
+        <v>-0.13009999999999999</v>
       </c>
       <c r="P3" s="1" cm="1">
         <f t="array" ref="P3">_xll.xlquoteOption($F3,P$1)</f>
-        <v>7.3544999999999998</v>
+        <v>0.44729999999999998</v>
       </c>
       <c r="Q3" s="1" cm="1">
         <f t="array" ref="Q3">_xll.xlquoteOption($F3,Q$1)</f>
-        <v>3.4119999999999999</v>
+        <v>5.3499999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Options.xlsx
+++ b/Examples/Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7840D32-9424-4877-9304-82D51B273AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B63A1A6-FF9F-4408-946B-375B2CFAE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Symbol</t>
   </si>
@@ -108,10 +108,10 @@
     <t>Rho</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t>Last</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
     <numFmt numFmtId="173" formatCode=";;;&quot;Rho&quot;"/>
     <numFmt numFmtId="174" formatCode="#,##0.00;[Red]\-#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +142,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,8 +182,8 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,30 +503,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.59765625" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -544,159 +536,148 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
+      <c r="H1" t="s">
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xll.xlquoteOption($F2,A$1)</f>
-        <v>AAPL Dec 16 2022 150 Call</v>
+        <v>AAPL Mar 21 2025 $250.00 Call</v>
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_xll.xlquoteOption($F2,B$1)</f>
-        <v>6.01</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C2" s="10" cm="1">
         <f t="array" ref="C2">_xll.xlquoteOption($F2,"Change")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="11" cm="1">
+      <c r="D2" s="12" cm="1">
         <f t="array" ref="D2">_xll.xlquoteOption($F2,"ChangePercent")/100</f>
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <f>G2&amp;"_"&amp;TEXT(I2,"mmddyy")&amp;LEFT(J2)&amp;K2</f>
-        <v>AAPL_121622C150</v>
+        <f>G2&amp;TEXT(H2,"yymmdd")&amp;LEFT(I2)&amp;TEXT(J2*1000,"00000000")</f>
+        <v>AAPL250321C00250000</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2">_xll.xlquoteOption($F2,H$1)</f>
-        <v>149.69999999999999</v>
-      </c>
-      <c r="I2" s="12">
-        <v>44911</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="11">
+        <v>45737</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="K2">
-        <v>150</v>
+      <c r="J2">
+        <v>250</v>
+      </c>
+      <c r="K2" s="1" cm="1">
+        <f t="array" ref="K2">_xll.xlquoteOption($F2,K$1)</f>
+        <v>0.22323999999999999</v>
       </c>
       <c r="L2" s="1" cm="1">
         <f t="array" ref="L2">_xll.xlquoteOption($F2,L$1)</f>
-        <v>31.572099999999999</v>
+        <v>0.21839217164892499</v>
       </c>
       <c r="M2" s="1" cm="1">
         <f t="array" ref="M2">_xll.xlquoteOption($F2,M$1)</f>
-        <v>0.52639999999999998</v>
+        <v>1.3433478991505101E-2</v>
       </c>
       <c r="N2" s="1" cm="1">
         <f t="array" ref="N2">_xll.xlquoteOption($F2,N$1)</f>
-        <v>2.7099999999999999E-2</v>
+        <v>-5.5099955746933299E-2</v>
       </c>
       <c r="O2" s="1" cm="1">
         <f t="array" ref="O2">_xll.xlquoteOption($F2,O$1)</f>
-        <v>-9.06E-2</v>
+        <v>0.26710196077176401</v>
       </c>
       <c r="P2" s="1" cm="1">
         <f t="array" ref="P2">_xll.xlquoteOption($F2,P$1)</f>
-        <v>0.18690000000000001</v>
-      </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">_xll.xlquoteOption($F2,Q$1)</f>
-        <v>7.1099999999999997E-2</v>
+        <v>8.0368062788505501E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3">_xll.xlquoteOption($F3,A$1)</f>
-        <v>SPX Dec 16 2022 4600 Call (AM)</v>
+        <v>SPX Mar 21 2025 $6000.00 Call</v>
       </c>
       <c r="B3" s="1" cm="1">
         <f t="array" ref="B3">_xll.xlquoteOption($F3,B$1)</f>
-        <v>1.25</v>
+        <v>145.38</v>
       </c>
       <c r="C3" s="10" cm="1">
         <f t="array" ref="C3">_xll.xlquoteOption($F3,"Change")</f>
         <v>0</v>
       </c>
-      <c r="D3" s="11" cm="1">
+      <c r="D3" s="12" cm="1">
         <f t="array" ref="D3">_xll.xlquoteOption($F3,"ChangePercent")/100</f>
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f>G3&amp;"_"&amp;TEXT(I3,"mmddyy")&amp;LEFT(J3)&amp;K3</f>
-        <v>SPX_121622C4600</v>
+        <f>G3&amp;TEXT(H3,"yymmdd")&amp;LEFT(I3)&amp;TEXT(J3*1000,"00000000")</f>
+        <v>SPX250321C06000000</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" cm="1">
-        <f t="array" ref="H3">_xll.xlquoteOption($F3,H$1)</f>
-        <v>3992.93</v>
-      </c>
-      <c r="I3" s="12">
-        <v>44911</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="11">
+        <v>45737</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>4600</v>
+      <c r="J3">
+        <v>6000</v>
+      </c>
+      <c r="K3" s="1" cm="1">
+        <f t="array" ref="K3">_xll.xlquoteOption($F3,K$1)</f>
+        <v>0.132045</v>
       </c>
       <c r="L3" s="1" cm="1">
         <f t="array" ref="L3">_xll.xlquoteOption($F3,L$1)</f>
-        <v>20.205500000000001</v>
+        <v>0.55009109609212203</v>
       </c>
       <c r="M3" s="1" cm="1">
         <f t="array" ref="M3">_xll.xlquoteOption($F3,M$1)</f>
-        <v>1.41E-2</v>
+        <v>1.18063242149138E-3</v>
       </c>
       <c r="N3" s="1" cm="1">
         <f t="array" ref="N3">_xll.xlquoteOption($F3,N$1)</f>
-        <v>1E-4</v>
+        <v>-1.0484075756345601</v>
       </c>
       <c r="O3" s="1" cm="1">
         <f t="array" ref="O3">_xll.xlquoteOption($F3,O$1)</f>
-        <v>-0.13009999999999999</v>
+        <v>9.7349734068049898</v>
       </c>
       <c r="P3" s="1" cm="1">
         <f t="array" ref="P3">_xll.xlquoteOption($F3,P$1)</f>
-        <v>0.44729999999999998</v>
-      </c>
-      <c r="Q3" s="1" cm="1">
-        <f t="array" ref="Q3">_xll.xlquoteOption($F3,Q$1)</f>
-        <v>5.3499999999999999E-2</v>
+        <v>4.7347391815526398</v>
       </c>
     </row>
   </sheetData>
